--- a/masterData/MPPA-Rating_20220302.xlsx
+++ b/masterData/MPPA-Rating_20220302.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nchaiphuong\Documents\Github_Repos\Viz003_IMDb-Top-Worldwide-Movies-20220302\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nchaiphuong\Documents\githubRepos\IMDb-top-movies-over-100-years-powerBI-dashboard\masterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E826E00-06A8-4BF7-89A0-34617F7D397B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD1FB3-AA41-4410-9DC9-BEC2CCB6DEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10678,19 +10678,19 @@
 On the box: "No One 17 and Under Admitted"</t>
   </si>
   <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_G_RATING_(block)-Trans.png?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_PG_RATING_(block)-Trans.png?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_PG-13_RATING_(block)-Trans.png?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_R_RATING_(block)-Trans.png?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_NC-17_RATING_(block)-Trans.png?raw=true</t>
+    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/MPA_G_RATING_(block)-Trans.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/MPA_PG_RATING_(block)-Trans.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/MPA_PG-13_RATING_(block)-Trans.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/MPA_R_RATING_(block)-Trans.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/MPA_NC-17_RATING_(block)-Trans.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -11519,7 +11519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -83572,7 +83572,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -83689,11 +83689,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{84420565-05AA-42E2-A9B4-9DB325912AAC}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{07DAF680-6F22-4BD9-A9E6-D66ADC9B7171}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{BA9EA140-198C-43E3-9B41-63E11C576AB3}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{F8E3D6F5-6451-4B53-A16A-054A0899798F}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{55CD8595-61C2-40C3-9FE1-47A8746FD8BF}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_G_RATING_(block)-Trans.png?raw=true" xr:uid="{84420565-05AA-42E2-A9B4-9DB325912AAC}"/>
+    <hyperlink ref="E6" r:id="rId2" display="https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_NC-17_RATING_(block)-Trans.png?raw=true" xr:uid="{07DAF680-6F22-4BD9-A9E6-D66ADC9B7171}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_PG-13_RATING_(block)-Trans.png?raw=true" xr:uid="{BA9EA140-198C-43E3-9B41-63E11C576AB3}"/>
+    <hyperlink ref="E3" r:id="rId4" display="https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_PG_RATING_(block)-Trans.png?raw=true" xr:uid="{F8E3D6F5-6451-4B53-A16A-054A0899798F}"/>
+    <hyperlink ref="E5" r:id="rId5" display="https://github.com/mandyhpnguyen/Viz003_IMDb-Top-Worldwide-Movies-20220302/blob/main/images/MPA_R_RATING_(block)-Trans.png?raw=true" xr:uid="{55CD8595-61C2-40C3-9FE1-47A8746FD8BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/masterData/MPPA-Rating_20220302.xlsx
+++ b/masterData/MPPA-Rating_20220302.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nchaiphuong\Documents\githubRepos\IMDb-top-movies-over-100-years-powerBI-dashboard\masterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CD1FB3-AA41-4410-9DC9-BEC2CCB6DEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7B521E-F51D-40E6-B219-A6A4A776FBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10678,19 +10678,19 @@
 On the box: "No One 17 and Under Admitted"</t>
   </si>
   <si>
-    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/MPA_G_RATING_(block)-Trans.png?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/MPA_PG_RATING_(block)-Trans.png?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/MPA_PG-13_RATING_(block)-Trans.png?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/MPA_R_RATING_(block)-Trans.png?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/MPA_NC-17_RATING_(block)-Trans.png?raw=true</t>
+    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/movie_logos/MPA_G_RATING_(block)-Trans.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/movie_logos/MPA_PG_RATING_(block)-Trans.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/movie_logos/MPA_PG-13_RATING_(block)-Trans.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/movie_logos/MPA_R_RATING_(block)-Trans.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/mandyhpnguyen/IMDb-top-movies-over-100-years-powerBI-dashboard/blob/main/images/movie_logos/MPA_NC-17_RATING_(block)-Trans.png?raw=true</t>
   </si>
 </sst>
 </file>
@@ -83572,7 +83572,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
